--- a/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 24,33</t>
+          <t>-0,43; 23,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 33,6</t>
+          <t>8,28; 33,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,45; -10,36</t>
+          <t>-30,68; -10,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 28,6</t>
+          <t>3,28; 29,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 18,17</t>
+          <t>-6,51; 17,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -18,76</t>
+          <t>-36,14; -17,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 22,59</t>
+          <t>4,07; 22,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 22,56</t>
+          <t>4,1; 21,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,21; -17,57</t>
+          <t>-31,35; -17,59</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 116,44</t>
+          <t>-0,62; 117,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 161,61</t>
+          <t>25,0; 163,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,86; -46,4</t>
+          <t>-86,77; -41,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 113,5</t>
+          <t>9,07; 121,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 70,4</t>
+          <t>-18,01; 71,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,84; -57,37</t>
+          <t>-98,6; -53,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 87,95</t>
+          <t>11,93; 90,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 88,73</t>
+          <t>12,28; 88,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,16; -65,53</t>
+          <t>-91,79; -66,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,47</t>
+          <t>-1,29; 10,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,77</t>
+          <t>-4,34; 6,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -23,06</t>
+          <t>-31,85; -22,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 3,37</t>
+          <t>-8,5; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,01</t>
+          <t>-5,48; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -27,78</t>
+          <t>-36,05; -27,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,79</t>
+          <t>-3,07; 5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,02</t>
+          <t>-3,14; 4,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,75; -26,12</t>
+          <t>-32,71; -26,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 30,29</t>
+          <t>-3,47; 31,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 21,54</t>
+          <t>-11,79; 21,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -70,86</t>
+          <t>-84,97; -69,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 9,34</t>
+          <t>-20,69; 9,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 16,34</t>
+          <t>-13,15; 15,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,95; -76,73</t>
+          <t>-86,57; -77,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 13,94</t>
+          <t>-8,05; 14,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 14,7</t>
+          <t>-8,16; 13,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,68; -76,02</t>
+          <t>-84,53; -75,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,2</t>
+          <t>-2,0; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,83</t>
+          <t>-3,51; 5,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -14,65</t>
+          <t>-22,34; -14,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 0,16</t>
+          <t>-8,52; 0,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -1,76</t>
+          <t>-10,59; -1,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -18,39</t>
+          <t>-25,59; -18,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,95</t>
+          <t>-4,21; 2,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,54</t>
+          <t>-5,83; 0,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -17,31</t>
+          <t>-22,61; -17,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 22,02</t>
+          <t>-6,39; 24,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 17,86</t>
+          <t>-11,07; 18,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,84; -52,46</t>
+          <t>-71,25; -53,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 0,51</t>
+          <t>-22,03; 1,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; -5,36</t>
+          <t>-27,4; -5,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,49; -53,95</t>
+          <t>-66,56; -52,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 5,99</t>
+          <t>-12,26; 7,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 1,67</t>
+          <t>-16,77; 0,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,92; -55,09</t>
+          <t>-66,38; -55,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 15,72</t>
+          <t>5,49; 16,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 16,27</t>
+          <t>5,74; 15,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -5,08</t>
+          <t>-14,79; -4,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 17,44</t>
+          <t>7,17; 17,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,18</t>
+          <t>6,86; 17,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 26,71</t>
+          <t>-9,74; 26,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 15,19</t>
+          <t>7,92; 14,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,3</t>
+          <t>8,01; 15,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 17,26</t>
+          <t>-9,9; 14,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,66; 61,53</t>
+          <t>17,72; 64,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,57; 63,3</t>
+          <t>19,05; 64,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,39; -19,49</t>
+          <t>-48,35; -18,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,81; 68,92</t>
+          <t>24,86; 68,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,79; 67,02</t>
+          <t>23,03; 68,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 98,04</t>
+          <t>-34,06; 99,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,51; 59,24</t>
+          <t>26,34; 57,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,09; 58,44</t>
+          <t>26,53; 57,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 69,46</t>
+          <t>-35,09; 55,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 26,8</t>
+          <t>17,93; 26,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,51</t>
+          <t>6,04; 14,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,68</t>
+          <t>1,03; 10,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 17,49</t>
+          <t>9,34; 17,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 8,6</t>
+          <t>-0,16; 9,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,42</t>
+          <t>-4,64; 3,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,75</t>
+          <t>14,18; 20,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,19</t>
+          <t>4,26; 10,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,3</t>
+          <t>-0,62; 5,47</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>59,97; 104,81</t>
+          <t>60,69; 107,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,14; 55,63</t>
+          <t>20,67; 58,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,47; 37,91</t>
+          <t>3,84; 39,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,26; 53,01</t>
+          <t>25,65; 54,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 25,74</t>
+          <t>-0,44; 27,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 10,28</t>
+          <t>-12,58; 9,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,47; 69,7</t>
+          <t>43,45; 70,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,22; 33,99</t>
+          <t>12,84; 34,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 17,62</t>
+          <t>-1,87; 18,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,47</t>
+          <t>7,68; 12,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,55</t>
+          <t>4,34; 8,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -9,15</t>
+          <t>-13,48; -9,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,64</t>
+          <t>3,06; 7,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,7</t>
+          <t>-0,12; 4,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -2,98</t>
+          <t>-15,16; -3,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,57</t>
+          <t>6,08; 9,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,91</t>
+          <t>2,68; 5,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,45</t>
+          <t>-13,56; -7,48</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>26,31; 43,88</t>
+          <t>25,32; 44,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,65; 30,0</t>
+          <t>14,51; 31,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -32,0</t>
+          <t>-44,01; -31,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,59; 23,08</t>
+          <t>8,33; 23,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,11; 14,36</t>
+          <t>-0,34; 13,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -7,95</t>
+          <t>-43,5; -9,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,77; 30,56</t>
+          <t>18,54; 30,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>7,74; 18,72</t>
+          <t>8,17; 18,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -20,32</t>
+          <t>-41,73; -22,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 23,4</t>
+          <t>-0,87; 23,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 33,57</t>
+          <t>7,61; 34,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -10,64</t>
+          <t>-31,57; -10,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 29,98</t>
+          <t>3,88; 28,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 17,5</t>
+          <t>-5,49; 18,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -17,99</t>
+          <t>-37,44; -18,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 22,83</t>
+          <t>3,74; 21,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 21,71</t>
+          <t>4,88; 22,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,35; -17,59</t>
+          <t>-32,0; -17,71</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 117,04</t>
+          <t>-4,06; 110,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,0; 163,4</t>
+          <t>20,72; 162,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,77; -41,15</t>
+          <t>-87,53; -44,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 121,06</t>
+          <t>10,88; 116,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 71,2</t>
+          <t>-15,25; 75,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,6; -53,65</t>
+          <t>-98,69; -60,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 90,86</t>
+          <t>11,22; 84,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 88,11</t>
+          <t>14,68; 90,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,79; -66,81</t>
+          <t>-91,78; -65,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 10,02</t>
+          <t>-1,33; 10,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,95</t>
+          <t>-4,17; 6,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,85; -22,49</t>
+          <t>-31,78; -22,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 3,25</t>
+          <t>-7,94; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 5,68</t>
+          <t>-5,53; 6,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,05; -27,53</t>
+          <t>-36,1; -27,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,15</t>
+          <t>-3,1; 4,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,67</t>
+          <t>-3,33; 4,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,71; -26,17</t>
+          <t>-32,74; -26,24</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 31,47</t>
+          <t>-3,57; 33,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 21,56</t>
+          <t>-11,4; 21,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,97; -69,29</t>
+          <t>-85,62; -69,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 9,26</t>
+          <t>-19,14; 10,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 15,7</t>
+          <t>-13,4; 18,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,57; -77,29</t>
+          <t>-86,45; -77,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 14,57</t>
+          <t>-8,24; 14,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 13,53</t>
+          <t>-8,73; 14,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -75,79</t>
+          <t>-84,32; -75,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,65</t>
+          <t>-2,08; 6,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,05</t>
+          <t>-2,9; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -14,85</t>
+          <t>-22,7; -14,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 0,39</t>
+          <t>-8,55; 0,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,92</t>
+          <t>-10,29; -1,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,59; -18,2</t>
+          <t>-25,53; -18,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,23</t>
+          <t>-4,16; 1,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 0,21</t>
+          <t>-5,71; 0,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,61; -17,27</t>
+          <t>-23,24; -17,52</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 24,06</t>
+          <t>-6,4; 22,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 18,53</t>
+          <t>-9,47; 18,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,25; -53,29</t>
+          <t>-71,69; -53,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 1,13</t>
+          <t>-22,22; 0,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -5,92</t>
+          <t>-26,48; -4,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,56; -52,88</t>
+          <t>-66,27; -53,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 7,19</t>
+          <t>-12,06; 6,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 0,52</t>
+          <t>-16,66; 1,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,38; -55,16</t>
+          <t>-66,86; -55,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 16,28</t>
+          <t>5,14; 15,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,96</t>
+          <t>6,32; 16,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -4,73</t>
+          <t>-14,65; -4,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 17,13</t>
+          <t>7,94; 18,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 17,14</t>
+          <t>6,51; 16,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 26,03</t>
+          <t>-9,42; 29,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,96</t>
+          <t>7,87; 15,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,02</t>
+          <t>7,78; 14,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 14,78</t>
+          <t>-10,35; 13,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,72; 64,7</t>
+          <t>16,31; 62,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,05; 64,05</t>
+          <t>19,98; 62,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,35; -18,44</t>
+          <t>-48,45; -18,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,86; 68,58</t>
+          <t>26,44; 73,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,03; 68,41</t>
+          <t>21,17; 66,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 99,66</t>
+          <t>-33,44; 122,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,34; 57,36</t>
+          <t>26,75; 58,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,53; 57,8</t>
+          <t>26,6; 57,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 55,05</t>
+          <t>-36,19; 50,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,93; 26,82</t>
+          <t>18,06; 26,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,04; 14,85</t>
+          <t>6,73; 14,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,21</t>
+          <t>1,11; 9,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,34; 17,61</t>
+          <t>9,11; 17,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,08</t>
+          <t>0,32; 9,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 3,26</t>
+          <t>-4,48; 3,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,65</t>
+          <t>14,65; 21,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,35</t>
+          <t>4,08; 10,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,47</t>
+          <t>-0,65; 5,34</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>60,69; 107,74</t>
+          <t>60,63; 106,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,67; 58,27</t>
+          <t>23,18; 59,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,84; 39,52</t>
+          <t>3,88; 40,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,65; 54,19</t>
+          <t>24,47; 53,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 27,81</t>
+          <t>0,68; 28,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 9,96</t>
+          <t>-11,98; 11,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>43,45; 70,4</t>
+          <t>44,28; 70,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,84; 34,67</t>
+          <t>12,41; 35,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 18,02</t>
+          <t>-1,93; 18,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,5</t>
+          <t>8,05; 12,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,8</t>
+          <t>4,25; 8,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -9,02</t>
+          <t>-13,47; -9,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,65</t>
+          <t>3,08; 7,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,46</t>
+          <t>-0,05; 4,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -3,26</t>
+          <t>-15,35; -4,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,46</t>
+          <t>6,15; 9,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,82</t>
+          <t>2,7; 5,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -7,48</t>
+          <t>-13,71; -7,79</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>25,32; 44,11</t>
+          <t>26,46; 44,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,51; 31,0</t>
+          <t>13,61; 30,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -31,87</t>
+          <t>-44,29; -32,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,33; 23,07</t>
+          <t>8,65; 23,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,45</t>
+          <t>-0,1; 13,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -9,78</t>
+          <t>-43,93; -12,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,54; 30,48</t>
+          <t>18,68; 30,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,17; 18,79</t>
+          <t>8,18; 18,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,73; -22,75</t>
+          <t>-42,09; -23,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 23,96</t>
+          <t>-0,67; 24,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 34,07</t>
+          <t>8,59; 33,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -10,74</t>
+          <t>-29,45; -10,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 28,96</t>
+          <t>3,83; 28,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 18,76</t>
+          <t>-6,59; 18,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -18,48</t>
+          <t>-36,93; -18,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 21,73</t>
+          <t>4,24; 22,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 22,58</t>
+          <t>4,61; 22,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,0; -17,71</t>
+          <t>-31,21; -17,57</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 110,69</t>
+          <t>-1,48; 116,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 162,44</t>
+          <t>23,53; 161,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -44,54</t>
+          <t>-86,86; -46,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 116,21</t>
+          <t>9,89; 113,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 75,21</t>
+          <t>-18,51; 70,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,69; -60,49</t>
+          <t>-98,84; -57,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 84,26</t>
+          <t>11,75; 87,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 90,43</t>
+          <t>13,53; 88,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,78; -65,27</t>
+          <t>-91,16; -65,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 10,29</t>
+          <t>-1,59; 9,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,65</t>
+          <t>-4,79; 6,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,78; -22,22</t>
+          <t>-32,8; -23,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 3,47</t>
+          <t>-7,83; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,45</t>
+          <t>-5,42; 6,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -27,52</t>
+          <t>-36,43; -27,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,96</t>
+          <t>-2,93; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,9</t>
+          <t>-3,09; 5,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,74; -26,24</t>
+          <t>-32,75; -26,12</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 33,09</t>
+          <t>-4,01; 30,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 21,43</t>
+          <t>-13,12; 21,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,62; -69,85</t>
+          <t>-86,36; -70,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 10,02</t>
+          <t>-18,83; 9,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 18,17</t>
+          <t>-13,24; 16,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,45; -77,39</t>
+          <t>-86,95; -76,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 14,28</t>
+          <t>-7,51; 13,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 14,03</t>
+          <t>-8,09; 14,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -75,66</t>
+          <t>-84,68; -76,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,19</t>
+          <t>-2,43; 6,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,01</t>
+          <t>-3,87; 4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -14,9</t>
+          <t>-22,7; -14,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,15</t>
+          <t>-8,39; 0,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,29; -1,66</t>
+          <t>-10,18; -1,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -18,14</t>
+          <t>-25,8; -18,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,92</t>
+          <t>-4,37; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,63</t>
+          <t>-5,5; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -17,52</t>
+          <t>-23,0; -17,31</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 22,26</t>
+          <t>-7,83; 22,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 18,25</t>
+          <t>-11,89; 17,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -53,55</t>
+          <t>-70,84; -52,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 0,67</t>
+          <t>-21,84; 0,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,48; -4,81</t>
+          <t>-26,31; -5,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,27; -53,42</t>
+          <t>-66,49; -53,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 6,06</t>
+          <t>-12,5; 5,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 1,76</t>
+          <t>-15,76; 1,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,86; -55,58</t>
+          <t>-66,92; -55,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 15,73</t>
+          <t>5,57; 15,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,19</t>
+          <t>6,08; 16,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,65; -4,74</t>
+          <t>-14,96; -5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 18,21</t>
+          <t>7,46; 17,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 16,83</t>
+          <t>7,06; 17,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 29,99</t>
+          <t>-9,14; 26,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 15,27</t>
+          <t>8,09; 15,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,9</t>
+          <t>8,1; 15,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 13,79</t>
+          <t>-9,96; 17,26</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 62,12</t>
+          <t>17,66; 61,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,98; 62,32</t>
+          <t>19,57; 63,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,45; -18,37</t>
+          <t>-48,39; -19,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,44; 73,08</t>
+          <t>24,81; 68,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,17; 66,63</t>
+          <t>22,79; 67,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 122,12</t>
+          <t>-32,49; 98,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,75; 58,97</t>
+          <t>27,51; 59,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,6; 57,45</t>
+          <t>27,09; 58,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 50,72</t>
+          <t>-34,85; 69,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,06; 26,83</t>
+          <t>17,96; 26,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,94</t>
+          <t>6,11; 14,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,94</t>
+          <t>0,8; 9,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,11; 17,37</t>
+          <t>8,64; 17,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 9,35</t>
+          <t>-0,2; 8,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,76</t>
+          <t>-4,78; 3,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,65; 21,13</t>
+          <t>14,7; 20,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,61</t>
+          <t>4,24; 10,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,34</t>
+          <t>-0,49; 5,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>60,63; 106,96</t>
+          <t>59,97; 104,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,18; 59,1</t>
+          <t>20,14; 55,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,88; 40,55</t>
+          <t>2,47; 37,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,47; 53,1</t>
+          <t>23,26; 53,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,68; 28,36</t>
+          <t>-0,47; 25,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 11,51</t>
+          <t>-12,81; 10,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,28; 70,48</t>
+          <t>44,47; 69,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,41; 35,44</t>
+          <t>13,22; 33,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 18,08</t>
+          <t>-1,5; 17,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,53</t>
+          <t>7,9; 12,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,66</t>
+          <t>4,22; 8,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -9,12</t>
+          <t>-13,44; -9,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,91</t>
+          <t>3,05; 7,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,51</t>
+          <t>0,02; 4,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -4,5</t>
+          <t>-15,16; -2,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,51</t>
+          <t>6,15; 9,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,86</t>
+          <t>2,57; 5,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -7,79</t>
+          <t>-13,58; -6,45</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>26,46; 44,43</t>
+          <t>26,31; 43,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,61; 30,18</t>
+          <t>13,65; 30,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -32,28</t>
+          <t>-44,57; -32,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,65; 23,61</t>
+          <t>8,59; 23,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,64</t>
+          <t>0,11; 14,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,93; -12,15</t>
+          <t>-43,56; -7,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,49</t>
+          <t>18,77; 30,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,18; 18,88</t>
+          <t>7,74; 18,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,09; -23,5</t>
+          <t>-41,78; -20,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,24</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,02</t>
+          <t>-26,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-28,55</t>
+          <t>-31,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-24,57</t>
+          <t>-28,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 24,33</t>
+          <t>0,26; 10,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 33,6</t>
+          <t>-0,95; 9,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,45; -10,36</t>
+          <t>-30,27; -21,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 28,6</t>
+          <t>-4,86; 5,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 18,17</t>
+          <t>-4,08; 6,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -18,76</t>
+          <t>-35,53; -27,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 22,59</t>
+          <t>-0,62; 6,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 22,56</t>
+          <t>-0,66; 6,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,21; -17,57</t>
+          <t>-31,95; -26,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-72,03%</t>
+          <t>-78,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-90,86%</t>
+          <t>-83,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-83,03%</t>
+          <t>-81,42%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 116,44</t>
+          <t>0,72; 32,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 161,61</t>
+          <t>-2,59; 30,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,86; -46,4</t>
+          <t>-84,42; -70,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 113,5</t>
+          <t>-12,29; 15,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 70,4</t>
+          <t>-9,92; 18,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-98,84; -57,37</t>
+          <t>-88,22; -78,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 87,95</t>
+          <t>-1,66; 19,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 88,73</t>
+          <t>-1,8; 20,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-91,16; -65,53</t>
+          <t>-85,12; -77,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,33</t>
+          <t>-19,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,8</t>
+          <t>-22,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-29,57</t>
+          <t>-21,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,47</t>
+          <t>-2,43; 6,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,77</t>
+          <t>-3,87; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -23,06</t>
+          <t>-25,83; -15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 3,37</t>
+          <t>-8,39; 0,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,01</t>
+          <t>-10,18; -1,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,43; -27,78</t>
+          <t>-25,75; -18,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,79</t>
+          <t>-4,37; 1,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,02</t>
+          <t>-5,5; 0,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,75; -26,12</t>
+          <t>-25,65; -18,11</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-79,0%</t>
+          <t>-67,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>-16,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-82,27%</t>
+          <t>-60,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-80,76%</t>
+          <t>-64,37%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 30,29</t>
+          <t>-7,83; 22,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 21,54</t>
+          <t>-11,89; 17,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -70,86</t>
+          <t>-83,39; -54,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 9,34</t>
+          <t>-21,84; 0,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 16,34</t>
+          <t>-26,31; -5,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,95; -76,73</t>
+          <t>-66,34; -54,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 13,94</t>
+          <t>-12,5; 5,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 14,7</t>
+          <t>-15,76; 1,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,68; -76,02</t>
+          <t>-75,89; -56,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,54</t>
+          <t>-9,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-22,11</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,32</t>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,2</t>
+          <t>5,57; 15,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,83</t>
+          <t>6,08; 16,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -14,65</t>
+          <t>-14,96; -5,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 0,16</t>
+          <t>7,46; 17,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -1,76</t>
+          <t>7,06; 17,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -18,39</t>
+          <t>-10,07; 39,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,95</t>
+          <t>8,09; 15,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,54</t>
+          <t>8,1; 15,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -17,31</t>
+          <t>-10,38; 31,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-62,45%</t>
+          <t>-34,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-60,89%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-61,56%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 22,02</t>
+          <t>17,66; 61,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 17,86</t>
+          <t>19,57; 63,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,84; -52,46</t>
+          <t>-48,84; -19,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 0,51</t>
+          <t>24,81; 68,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; -5,36</t>
+          <t>22,79; 67,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,49; -53,95</t>
+          <t>-35,92; 148,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 5,99</t>
+          <t>27,51; 59,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 1,67</t>
+          <t>27,09; 58,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,92; -55,09</t>
+          <t>-36,49; 120,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>22,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>13,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,45</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 15,72</t>
+          <t>17,96; 26,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 16,27</t>
+          <t>6,11; 14,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -5,08</t>
+          <t>0,45; 9,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 17,44</t>
+          <t>8,64; 17,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,18</t>
+          <t>-0,2; 8,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 26,71</t>
+          <t>-9,37; 1,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 15,19</t>
+          <t>14,7; 20,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,3</t>
+          <t>4,24; 10,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 17,26</t>
+          <t>-3,23; 4,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>-7,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,66; 61,53</t>
+          <t>59,97; 104,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,57; 63,3</t>
+          <t>20,14; 55,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,39; -19,49</t>
+          <t>1,52; 37,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,81; 68,92</t>
+          <t>23,26; 53,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,79; 67,02</t>
+          <t>-0,47; 25,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 98,04</t>
+          <t>-25,05; 5,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,51; 59,24</t>
+          <t>44,47; 69,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,09; 58,44</t>
+          <t>13,22; 33,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 69,46</t>
+          <t>-9,69; 13,44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,42</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,33</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>-11,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 26,8</t>
+          <t>7,9; 12,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,51</t>
+          <t>4,22; 8,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,68</t>
+          <t>-16,77; -9,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 17,49</t>
+          <t>3,05; 7,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 8,6</t>
+          <t>0,02; 4,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,42</t>
+          <t>-16,03; 5,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,75</t>
+          <t>6,15; 9,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,19</t>
+          <t>2,57; 5,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,3</t>
+          <t>-14,57; -2,46</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>-41,79%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-31,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>-35,96%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>59,97; 104,81</t>
+          <t>26,31; 43,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,14; 55,63</t>
+          <t>13,65; 30,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,47; 37,91</t>
+          <t>-55,31; -34,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,26; 53,01</t>
+          <t>8,59; 23,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 25,74</t>
+          <t>0,11; 14,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 10,28</t>
+          <t>-46,18; 16,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,47; 69,7</t>
+          <t>18,77; 30,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,22; 33,99</t>
+          <t>7,74; 18,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 17,62</t>
+          <t>-45,02; -7,62</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>10,19</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-11,32</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-12,17</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-11,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>7,9; 12,47</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 8,55</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; -9,15</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 7,64</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 4,7</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-15,16; -2,98</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 9,57</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 5,91</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; -6,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>34,5%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>21,86%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-38,34%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>15,81%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>6,41%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-35,38%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>24,3%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-36,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>26,31; 43,88</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>13,65; 30,0</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-44,57; -32,0</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 23,08</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 14,36</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-43,56; -7,95</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>18,77; 30,56</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 18,72</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-41,78; -20,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
